--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/17/word_level_predictions_17.xlsx
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13034,416 +13034,416 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" t="n">
         <v>19</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" s="2" t="inlineStr">
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" s="2" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2" t="inlineStr">
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>19</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>19</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" t="n">
         <v>2</v>
       </c>
-      <c r="E245" s="2" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" s="2" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>19</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>3</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>19</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>4</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>19</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>5</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>19</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>6</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F249" s="2" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>19</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>7</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" s="2" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13918,366 +13918,366 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>2</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>27</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17853,11 +17853,11 @@
         </is>
       </c>
       <c r="I335" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K335" s="2" t="b">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="F336" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G336" s="2" t="b">
@@ -17905,11 +17905,11 @@
         </is>
       </c>
       <c r="I336" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K336" s="2" t="b">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="L336" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="F337" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G337" s="2" t="b">
@@ -17957,11 +17957,11 @@
         </is>
       </c>
       <c r="I337" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K337" s="2" t="b">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="L337" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18009,11 +18009,11 @@
         </is>
       </c>
       <c r="I338" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K338" s="2" t="b">
@@ -18061,11 +18061,11 @@
         </is>
       </c>
       <c r="I339" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K339" s="2" t="b">
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/17/word_level_predictions_17.xlsx
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13034,416 +13034,416 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="inlineStr">
+      <c r="D243" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" t="inlineStr">
+      <c r="D244" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>6</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>19</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="F250" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13918,366 +13918,366 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17853,11 +17853,11 @@
         </is>
       </c>
       <c r="I335" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K335" s="2" t="b">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="F336" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G336" s="2" t="b">
@@ -17905,11 +17905,11 @@
         </is>
       </c>
       <c r="I336" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K336" s="2" t="b">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="L336" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="F337" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G337" s="2" t="b">
@@ -17957,11 +17957,11 @@
         </is>
       </c>
       <c r="I337" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K337" s="2" t="b">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="L337" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18009,11 +18009,11 @@
         </is>
       </c>
       <c r="I338" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K338" s="2" t="b">
@@ -18061,11 +18061,11 @@
         </is>
       </c>
       <c r="I339" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J339" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K339" s="2" t="b">
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
